--- a/2020-quadratic.xlsx
+++ b/2020-quadratic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayte\Desktop\ED_WorkSpace\ED-2020-21-FernandezCoroMariaTeresa-UO263728\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472DA0EA-A7BF-4D74-AB0D-D591F47CAD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812006A7-9F81-4AFD-9297-E08196155031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Valor n</t>
+    <t>Milisegundos</t>
   </si>
   <si>
-    <t>Milisegundos</t>
+    <t>Valor n</t>
   </si>
 </sst>
 </file>
@@ -349,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -480,6 +480,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -561,22 +581,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -703,10 +726,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -717,16 +737,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -838,10 +853,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2020-quadratic'!$B$2:$B$34</c:f>
+              <c:f>'2020-quadratic'!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -852,88 +867,88 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>139</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>171</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>212</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>248</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>336</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>394</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>440</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>508</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>561</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>626</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>699</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>760</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>829</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>922</c:v>
+                  <c:v>916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1004</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1077</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1175</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1266</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1364</c:v>
+                  <c:v>1468</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1453</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1554</c:v>
+                  <c:v>1619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +956,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D51-4CEC-8FB9-4F6ACF0F965E}"/>
+              <c16:uniqueId val="{00000000-DBA9-4EA5-A10E-122A8AE7AE45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -955,11 +970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="417603696"/>
-        <c:axId val="417605336"/>
+        <c:axId val="495568928"/>
+        <c:axId val="495573192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="417603696"/>
+        <c:axId val="495568928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1017,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417605336"/>
+        <c:crossAx val="495573192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417605336"/>
+        <c:axId val="495573192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1076,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417603696"/>
+        <c:crossAx val="495568928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1665,22 +1680,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAD0D6C-4B99-4FA1-8752-327CD3935D31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2EE5D5-0153-4BDD-9CEE-A99143D3754D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,269 +2016,268 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="13" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="B18" s="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1364</v>
+      <c r="B30" s="1">
+        <v>1468</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
-        <v>1453</v>
+      <c r="B31" s="1">
+        <v>1550</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
-        <v>1554</v>
+      <c r="B32" s="2">
+        <v>1619</v>
       </c>
     </row>
   </sheetData>
